--- a/Consultas/Deuda de proveedores al 31-12-16.xlsx
+++ b/Consultas/Deuda de proveedores al 31-12-16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Compras en Cuenta corriente</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>Anticipos de Cuentas Corrientes</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Vecinito</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,46 +393,70 @@
     <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>3200862.79</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>316866.90999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>2946270.85</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>312606.90999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <f>+B1-B2</f>
+      <c r="B4">
+        <f>+B2-B3</f>
         <v>254591.93999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2670899.2999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>245225.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <f>+B2-B5</f>
+      <c r="B7">
+        <f>+B3-B6</f>
         <v>275371.55000000028</v>
+      </c>
+      <c r="C7">
+        <f>+C3-C6</f>
+        <v>67381.25999999998</v>
       </c>
     </row>
   </sheetData>
